--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9030" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,9 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -680,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -13,10 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,130 +25,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Mimi</t>
-  </si>
-  <si>
-    <t>Mel</t>
-  </si>
-  <si>
-    <t>123 654 7890</t>
-  </si>
-  <si>
-    <t>234 567 8901</t>
-  </si>
-  <si>
-    <t>345 678 9012</t>
-  </si>
-  <si>
-    <t>456 789 0123</t>
-  </si>
-  <si>
-    <t>567 890 1234</t>
-  </si>
-  <si>
-    <t>678 901 2345</t>
-  </si>
-  <si>
-    <t>Sally</t>
-  </si>
-  <si>
-    <t>Pheobe</t>
-  </si>
-  <si>
-    <t>Jimmy</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Nemo</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>256 845 6634</t>
-  </si>
-  <si>
-    <t>864 247 1154</t>
-  </si>
-  <si>
-    <t>786 542 1123</t>
-  </si>
-  <si>
-    <t>786 542 1124</t>
-  </si>
-  <si>
-    <t>975 423 6548</t>
-  </si>
-  <si>
-    <t>Hope</t>
-  </si>
-  <si>
-    <t>Devan</t>
-  </si>
-  <si>
-    <t>Yusiv</t>
-  </si>
-  <si>
-    <t>Haman</t>
-  </si>
-  <si>
-    <t>Josh</t>
-  </si>
-  <si>
-    <t>Rose</t>
-  </si>
-  <si>
-    <t>785 421 4862</t>
-  </si>
-  <si>
-    <t>214 568 1865</t>
-  </si>
-  <si>
-    <t>845 154 4687</t>
-  </si>
-  <si>
-    <t>453 486 1587</t>
-  </si>
-  <si>
-    <t>123 486 4785</t>
-  </si>
-  <si>
-    <t>445 486 1234</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>COSC</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Primary Act Type</t>
+  </si>
+  <si>
+    <t>LEC</t>
+  </si>
+  <si>
+    <t>LAB</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Faculty Name</t>
+  </si>
+  <si>
+    <t>MOHAMED, ABDALLAH</t>
+  </si>
+  <si>
+    <t>LAWRENCE, RAMON</t>
+  </si>
+  <si>
+    <t>GAO, YONG</t>
+  </si>
+  <si>
+    <t>HUI, BOWEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,14 +125,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,274 +490,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="8" width="13.7109375" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="37.140625" style="5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="B2" s="1">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>222</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="B4" s="1">
+        <v>304</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>499</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
+      <c r="G5" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:I5 B2:C5">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Subject</t>
   </si>
@@ -33,58 +33,31 @@
     <t>Course</t>
   </si>
   <si>
-    <t>Section</t>
-  </si>
-  <si>
     <t>COSC</t>
   </si>
   <si>
-    <t>Term</t>
-  </si>
-  <si>
     <t>Primary Act Type</t>
   </si>
   <si>
     <t>LEC</t>
   </si>
   <si>
-    <t>LAB</t>
-  </si>
-  <si>
     <t>Days</t>
   </si>
   <si>
+    <t>Faculty Name</t>
+  </si>
+  <si>
+    <t>MOHAMED, ABDALLAH</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>Start Time</t>
   </si>
   <si>
     <t>End Time</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>MWF</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Faculty Name</t>
-  </si>
-  <si>
-    <t>MOHAMED, ABDALLAH</t>
-  </si>
-  <si>
-    <t>LAWRENCE, RAMON</t>
-  </si>
-  <si>
-    <t>GAO, YONG</t>
-  </si>
-  <si>
-    <t>HUI, BOWEN</t>
   </si>
 </sst>
 </file>
@@ -157,12 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -176,6 +146,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,174 +464,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="8.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="8" width="13.7109375" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="37.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.140625" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="37.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>111</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>222</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>304</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>499</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:I5 B2:C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 G2">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>